--- a/data/trans_orig/P78DS2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E3D342-CFB6-450F-AC0B-68D40F4FBA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4384C310-5FEA-4F3B-9A3F-D31E44401532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D691F9B8-1866-4525-BAE2-F67F762A2DA8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8679ED4-A7C0-4F81-95A7-05E174EEB72C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="236">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 2 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -77,652 +77,658 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,33%</t>
+    <t>3,29%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>Actividades extraescolares</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Pago de colegios</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Tasa de autónomos</t>
+  </si>
+  <si>
+    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
+  </si>
+  <si>
+    <t>Cuotas de seguros</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>Actividades extraescolares</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Pago de colegios</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>Tasa de autónomos</t>
-  </si>
-  <si>
-    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
-  </si>
-  <si>
-    <t>Cuotas de seguros</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>97,63%</t>
@@ -731,10 +737,10 @@
     <t>96,95%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1149,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4828BB2E-3FBE-4E12-A23A-4CF9A2B9C829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631E3554-2DB1-4643-9E2E-E49E183EA3E2}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1869,10 +1875,10 @@
         <v>66</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,7 +1899,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1902,13 +1908,13 @@
         <v>1145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1917,13 +1923,13 @@
         <v>1145</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,7 +1950,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1959,7 +1965,7 @@
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1974,7 +1980,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,7 +2001,7 @@
         <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2010,7 +2016,7 @@
         <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2025,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2046,13 @@
         <v>1881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -2058,10 +2064,10 @@
         <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2070,13 +2076,13 @@
         <v>8325</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,7 +2103,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2112,7 +2118,7 @@
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2127,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,7 +2154,7 @@
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2163,7 +2169,7 @@
         <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2178,7 +2184,7 @@
         <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,7 +2205,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2214,7 +2220,7 @@
         <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2229,7 +2235,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,7 +2256,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2265,7 +2271,7 @@
         <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2280,7 +2286,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2301,13 @@
         <v>405196</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
         <v>431</v>
@@ -2310,13 +2316,13 @@
         <v>453914</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>716</v>
@@ -2325,13 +2331,13 @@
         <v>859109</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,7 +2393,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -2399,13 +2405,13 @@
         <v>2563</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2414,13 +2420,13 @@
         <v>5361</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2429,13 +2435,13 @@
         <v>7924</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,7 +2462,7 @@
         <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2465,13 +2471,13 @@
         <v>160</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2480,13 +2486,13 @@
         <v>160</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2513,7 @@
         <v>21</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2516,13 +2522,13 @@
         <v>881</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -2531,13 +2537,13 @@
         <v>881</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,7 +2564,7 @@
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2573,7 +2579,7 @@
         <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2588,7 +2594,7 @@
         <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2609,13 @@
         <v>6686</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -2618,13 +2624,13 @@
         <v>8198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -2633,13 +2639,13 @@
         <v>14883</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,7 +2666,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -2669,13 +2675,13 @@
         <v>2735</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -2684,13 +2690,13 @@
         <v>2735</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2711,13 @@
         <v>2661</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2720,13 +2726,13 @@
         <v>840</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2735,13 +2741,13 @@
         <v>3501</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2762,13 @@
         <v>1567</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2777,7 +2783,7 @@
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2786,13 +2792,13 @@
         <v>1567</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2819,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2828,7 +2834,7 @@
         <v>21</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2843,7 +2849,7 @@
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2864,13 @@
         <v>520489</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H35" s="7">
         <v>784</v>
@@ -2873,13 +2879,13 @@
         <v>566558</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M35" s="7">
         <v>1289</v>
@@ -2888,13 +2894,13 @@
         <v>1087046</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,7 +2956,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
@@ -2962,13 +2968,13 @@
         <v>13025</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -2977,13 +2983,13 @@
         <v>7538</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M37" s="7">
         <v>21</v>
@@ -2992,13 +2998,13 @@
         <v>20563</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3025,7 @@
         <v>21</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3034,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3049,7 +3055,7 @@
         <v>21</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,7 +3076,7 @@
         <v>21</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3085,7 +3091,7 @@
         <v>21</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3100,7 +3106,7 @@
         <v>21</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3121,13 @@
         <v>3503</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3136,7 +3142,7 @@
         <v>21</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -3145,13 +3151,13 @@
         <v>3503</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3172,13 @@
         <v>8474</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H41" s="7">
         <v>14</v>
@@ -3181,13 +3187,13 @@
         <v>8959</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="M41" s="7">
         <v>21</v>
@@ -3196,13 +3202,13 @@
         <v>17433</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3229,7 @@
         <v>21</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3232,13 +3238,13 @@
         <v>797</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3247,13 +3253,13 @@
         <v>797</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3280,7 @@
         <v>21</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3289,7 +3295,7 @@
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3304,7 +3310,7 @@
         <v>21</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3331,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -3334,13 +3340,13 @@
         <v>1508</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3349,13 +3355,13 @@
         <v>1508</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,7 +3382,7 @@
         <v>21</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -3385,13 +3391,13 @@
         <v>729</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -3400,13 +3406,13 @@
         <v>729</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3427,13 @@
         <v>677621</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H46" s="7">
         <v>1065</v>
@@ -3436,13 +3442,13 @@
         <v>700270</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M46" s="7">
         <v>1683</v>
@@ -3451,13 +3457,13 @@
         <v>1377890</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3519,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>10</v>
@@ -3528,10 +3534,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H48" s="7">
         <v>14</v>
@@ -3540,13 +3546,13 @@
         <v>9905</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M48" s="7">
         <v>24</v>
@@ -3558,10 +3564,10 @@
         <v>35</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3588,7 @@
         <v>21</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3612,7 +3618,7 @@
         <v>21</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,7 +3639,7 @@
         <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3663,7 +3669,7 @@
         <v>21</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,7 +3690,7 @@
         <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -3714,7 +3720,7 @@
         <v>21</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,10 +3738,10 @@
         <v>66</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H52" s="7">
         <v>6</v>
@@ -3744,13 +3750,13 @@
         <v>3698</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M52" s="7">
         <v>14</v>
@@ -3759,13 +3765,13 @@
         <v>11604</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,7 +3792,7 @@
         <v>21</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -3816,7 +3822,7 @@
         <v>21</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3843,7 @@
         <v>21</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -3867,7 +3873,7 @@
         <v>21</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3894,7 @@
         <v>21</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -3897,13 +3903,13 @@
         <v>696</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -3912,13 +3918,13 @@
         <v>696</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3945,7 @@
         <v>21</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -3948,13 +3954,13 @@
         <v>637</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -3963,13 +3969,13 @@
         <v>637</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3990,13 @@
         <v>551028</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="H57" s="7">
         <v>928</v>
@@ -3999,13 +4005,13 @@
         <v>549349</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M57" s="7">
         <v>1538</v>
@@ -4014,13 +4020,13 @@
         <v>1100377</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4082,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>10</v>
@@ -4088,13 +4094,13 @@
         <v>14300</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H59" s="7">
         <v>28</v>
@@ -4103,13 +4109,13 @@
         <v>17691</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="M59" s="7">
         <v>47</v>
@@ -4121,10 +4127,10 @@
         <v>38</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4151,7 @@
         <v>21</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4160,7 +4166,7 @@
         <v>21</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4175,7 +4181,7 @@
         <v>21</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4202,7 @@
         <v>21</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4211,7 +4217,7 @@
         <v>21</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4226,7 +4232,7 @@
         <v>21</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4253,7 @@
         <v>21</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4262,7 +4268,7 @@
         <v>21</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4277,7 +4283,7 @@
         <v>21</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4298,13 @@
         <v>6005</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H63" s="7">
         <v>13</v>
@@ -4307,13 +4313,13 @@
         <v>8102</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M63" s="7">
         <v>21</v>
@@ -4322,13 +4328,13 @@
         <v>14107</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,7 +4355,7 @@
         <v>21</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -4358,13 +4364,13 @@
         <v>648</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -4373,13 +4379,13 @@
         <v>648</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,7 +4406,7 @@
         <v>21</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4415,7 +4421,7 @@
         <v>21</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -4430,7 +4436,7 @@
         <v>21</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,28 +4451,28 @@
         <v>991</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4475,13 +4481,13 @@
         <v>991</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4508,7 @@
         <v>21</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4517,7 +4523,7 @@
         <v>21</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -4532,7 +4538,7 @@
         <v>21</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4553,13 @@
         <v>660168</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H68" s="7">
         <v>1599</v>
@@ -4562,13 +4568,13 @@
         <v>964983</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M68" s="7">
         <v>2575</v>
@@ -4577,13 +4583,13 @@
         <v>1625151</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4657,13 @@
         <v>52503</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H70" s="7">
         <v>66</v>
@@ -4666,13 +4672,13 @@
         <v>51238</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="M70" s="7">
         <v>117</v>
@@ -4681,13 +4687,13 @@
         <v>103741</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,7 +4714,7 @@
         <v>21</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H71" s="7">
         <v>2</v>
@@ -4717,13 +4723,13 @@
         <v>1305</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M71" s="7">
         <v>2</v>
@@ -4732,13 +4738,13 @@
         <v>1305</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,7 +4765,7 @@
         <v>21</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -4768,13 +4774,13 @@
         <v>3124</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="M72" s="7">
         <v>2</v>
@@ -4783,13 +4789,13 @@
         <v>3124</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4810,13 @@
         <v>3503</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -4825,7 +4831,7 @@
         <v>21</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -4834,13 +4840,13 @@
         <v>3503</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4861,13 @@
         <v>38636</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="H74" s="7">
         <v>54</v>
@@ -4870,13 +4876,13 @@
         <v>41134</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="M74" s="7">
         <v>90</v>
@@ -4888,10 +4894,10 @@
         <v>22</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,7 +4918,7 @@
         <v>21</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H75" s="7">
         <v>5</v>
@@ -4921,13 +4927,13 @@
         <v>4181</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M75" s="7">
         <v>5</v>
@@ -4936,13 +4942,13 @@
         <v>4181</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4963,13 @@
         <v>9016</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
@@ -4972,13 +4978,13 @@
         <v>840</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="M76" s="7">
         <v>5</v>
@@ -4987,13 +4993,13 @@
         <v>9857</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5014,13 @@
         <v>2558</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="H77" s="7">
         <v>3</v>
@@ -5023,13 +5029,13 @@
         <v>2204</v>
       </c>
       <c r="J77" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M77" s="7">
         <v>5</v>
@@ -5038,13 +5044,13 @@
         <v>4761</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,7 +5071,7 @@
         <v>21</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H78" s="7">
         <v>2</v>
@@ -5074,13 +5080,13 @@
         <v>1366</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="M78" s="7">
         <v>2</v>
@@ -5089,13 +5095,13 @@
         <v>1366</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5116,13 @@
         <v>3168607</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H79" s="7">
         <v>4993</v>
@@ -5125,13 +5131,13 @@
         <v>3550210</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M79" s="7">
         <v>8145</v>
@@ -5140,13 +5146,13 @@
         <v>6718817</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5208,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4384C310-5FEA-4F3B-9A3F-D31E44401532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D76CC0D-5A24-4D85-8D78-97C8E297B9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8679ED4-A7C0-4F81-95A7-05E174EEB72C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0675E428-91CE-4693-8AE9-B224907B9DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1155,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631E3554-2DB1-4643-9E2E-E49E183EA3E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2457D1C-119B-41F4-BEC2-914F64D993E9}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
